--- a/biology/Zoologie/Hippoglossus/Hippoglossus.xlsx
+++ b/biology/Zoologie/Hippoglossus/Hippoglossus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippoglossus est un genre de poissons marins de la famille des Pleuronectidae.
 Comme tous les poissons de la famille des Pleuronectidae, les poissons du genre Hippoglossus possèdent un corps aplati asymétrique et leurs yeux sont sur un même côté du corps.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (13 fev. 2016)[1] et World Register of Marine Species                               (13 fev. 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (13 fev. 2016) et World Register of Marine Species                               (13 fev. 2016) :
 Hippoglossus hippoglossus (Linnaeus, 1758) - Flétan de l'Atlantique
 Hippoglossus stenolepis Schmidt, 1904 - Flétan du Pacifique</t>
         </is>
